--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file-java/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel-file-java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E09FA4-1F99-0748-A7AF-238D5A1C22EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB2F4C-C784-41AF-86D0-40BDD284480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,15 +247,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>728025</xdr:colOff>
+      <xdr:colOff>938481</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2302934</xdr:rowOff>
+      <xdr:rowOff>1475620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>806721</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>89181</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59233</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -284,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10346158" y="2827867"/>
-          <a:ext cx="6852030" cy="7014914"/>
+          <a:off x="11896766" y="2005392"/>
+          <a:ext cx="7742239" cy="7104418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,20 +617,20 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.3125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6875" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.8125" style="2" customWidth="1"/>
     <col min="6" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="199" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="199" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -703,12 +703,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -716,17 +716,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>

--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file-java/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E09FA4-1F99-0748-A7AF-238D5A1C22EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107955F-EE17-F54E-99B9-9F683A47D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ABC</t>
   </si>
@@ -247,15 +247,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>728025</xdr:colOff>
+      <xdr:colOff>821158</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2302934</xdr:rowOff>
+      <xdr:rowOff>1809750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>806721</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>89181</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53188</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>154797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -284,8 +284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10346158" y="2827867"/>
-          <a:ext cx="6852030" cy="7014914"/>
+          <a:off x="10409658" y="2343150"/>
+          <a:ext cx="6775830" cy="7158847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD9EE6-324C-0244-90B9-856C409BCB55}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -739,6 +739,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file-java/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107955F-EE17-F54E-99B9-9F683A47D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F06DC-FA75-1E43-9E78-DF0B43E45AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ABC</t>
   </si>
@@ -109,6 +109,63 @@
   </si>
   <si>
     <t>oof</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -614,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD9EE6-324C-0244-90B9-856C409BCB55}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -625,9 +682,11 @@
     <col min="1" max="1" width="67.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
     <col min="3" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="2" customWidth="1"/>
     <col min="6" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="2"/>
+    <col min="9" max="16" width="11" style="2"/>
+    <col min="17" max="17" width="32.1640625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -739,9 +798,124 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file-java/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F06DC-FA75-1E43-9E78-DF0B43E45AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ACCBD4-C22F-D942-AF77-13BAB4B01A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
@@ -303,23 +303,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>821158</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3532188</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1809750</xdr:rowOff>
+      <xdr:rowOff>1389063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>53188</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>154797</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666486</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F84384-BB94-110F-C778-8FAEF3358392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814A942E-6E7E-2C2D-392D-7D4E98354550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -328,7 +328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -341,8 +341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10409658" y="2343150"/>
-          <a:ext cx="6775830" cy="7158847"/>
+          <a:off x="3532188" y="1924844"/>
+          <a:ext cx="9496954" cy="7044532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,7 +674,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
